--- a/src/analysis_examples/circadb/results_jtk/cosinor_10360227_pea15a_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10360227_pea15a_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.13591654976092182, 0.31587485706709806]</t>
+          <t>[0.13672444187682353, 0.31506696495119635]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3.563920239479934e-05</v>
+        <v>3.190181428247563e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>3.563920239479934e-05</v>
+        <v>3.190181428247563e-05</v>
       </c>
       <c r="O2" t="n">
         <v>-0.8553685703467702</v>
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.31164974756042896, 0.4042612496683995]</t>
+          <t>[0.31167000242632514, 0.4042409948025033]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>2.808864252301646e-13</v>
+        <v>2.784439345759893e-13</v>
       </c>
       <c r="V2" t="n">
-        <v>2.808864252301646e-13</v>
+        <v>2.784439345759893e-13</v>
       </c>
       <c r="W2" t="n">
         <v>3.412932932933042</v>
